--- a/Resources/csv data/Coursera Transcripts.xlsx
+++ b/Resources/csv data/Coursera Transcripts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6917bc646511f86f/Coraline/Resources/csv data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="8_{5923D497-5A9D-4978-9CAB-EC04860BD7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{845BEF25-8F33-4B0D-A79F-9ED2C0994FAB}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="8_{5923D497-5A9D-4978-9CAB-EC04860BD7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3E11E17-FFF6-4144-824C-C92FD06A01D0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="15" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="34560" windowHeight="18648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coursera Transcripts" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>Course Name</t>
   </si>
@@ -310,14 +310,36 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>Deep Learning and Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>SQL for Data Science with R</t>
+  </si>
+  <si>
+    <t>The Strategist's Challenge</t>
+  </si>
+  <si>
+    <t>Introduction to R Programming for Data Science</t>
+  </si>
+  <si>
+    <t>Data Analysis with R</t>
+  </si>
+  <si>
+    <t>Data Visualization with R</t>
+  </si>
+  <si>
+    <t>Python Basics: Selection and Iteration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -369,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -377,11 +399,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -389,7 +413,10 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="165" formatCode="m/d/yy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <font>
@@ -408,7 +435,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="171" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -431,10 +458,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yy"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -450,24 +474,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1007B25-A01E-8F4F-82EF-ED64F11D2113}" name="Courses" displayName="Courses" ref="A1:E59" totalsRowShown="0">
-  <autoFilter ref="A1:E59" xr:uid="{C1007B25-A01E-8F4F-82EF-ED64F11D2113}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C1007B25-A01E-8F4F-82EF-ED64F11D2113}" name="Courses" displayName="Courses" ref="A1:E66" totalsRowShown="0">
+  <autoFilter ref="A1:E66" xr:uid="{C1007B25-A01E-8F4F-82EF-ED64F11D2113}">
     <filterColumn colId="3">
       <customFilters>
         <customFilter operator="greaterThan" val="70"/>
       </customFilters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E57">
-    <sortCondition ref="A1:A59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E66">
+    <sortCondition ref="A1:A66"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="3" xr3:uid="{83BC4641-D12D-4A43-8D8E-25D9B3DBCB1E}" name="Certificate Name" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{83BC4641-D12D-4A43-8D8E-25D9B3DBCB1E}" name="Certificate Name" dataDxfId="4">
       <calculatedColumnFormula array="1">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="1" xr3:uid="{2E5D9F1B-16AB-7B44-8CBD-4744D9AE846D}" name="Course Name"/>
-    <tableColumn id="2" xr3:uid="{6145ECC3-2A60-364E-BB74-8DA4B83595DA}" name="Enrollment Date" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{CB2EE1F6-8229-894F-8B0C-387DF46E2547}" name="Grade Achieved" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{6145ECC3-2A60-364E-BB74-8DA4B83595DA}" name="Enrollment Date" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{CB2EE1F6-8229-894F-8B0C-387DF46E2547}" name="Grade Achieved" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{498FECA8-C55C-4882-BCE3-FD5E3236F3F9}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -480,8 +504,8 @@
   <tableColumns count="5">
     <tableColumn id="5" xr3:uid="{BEAE5FA2-4D1B-4D4F-A151-71CF72092A13}" name="Index"/>
     <tableColumn id="1" xr3:uid="{2258466B-6155-4778-A5AA-83A81DC0F183}" name="Specialization"/>
-    <tableColumn id="2" xr3:uid="{7FEE149D-F57D-43C2-9CE0-23564FBD01A1}" name="Course" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{5BA1064C-E51C-4D89-9C1D-A4A18FEA3550}" name="Completion Date" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{7FEE149D-F57D-43C2-9CE0-23564FBD01A1}" name="Course" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{5BA1064C-E51C-4D89-9C1D-A4A18FEA3550}" name="Completion Date" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{24EEFEF5-2941-4C4A-9624-7526A64E4613}" name="Link"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -785,21 +809,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B19218-85BE-104E-A5DC-E8462AC22765}">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>61</v>
       </c>
@@ -816,874 +840,979 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>Google Data Analytics</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1">
-        <v>44558</v>
+        <v>44514</v>
       </c>
       <c r="D2" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="e" cm="1">
+        <v>97.61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="str" cm="1">
         <f t="array" ref="A3">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+        <v>Google Data Analytics</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
-        <v>44640</v>
+        <v>44556</v>
       </c>
       <c r="D3" s="2">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="e" cm="1">
+        <v>94.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="str" cm="1">
         <f t="array" ref="A4">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+        <v>Google Data Analytics</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1">
-        <v>44624</v>
+        <v>44528</v>
       </c>
       <c r="D4" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>91.71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="e" cm="1">
         <f t="array" ref="A5">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="C5" s="1">
-        <v>44616</v>
+        <v>44737</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="e" cm="1">
         <f t="array" ref="A6">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
-        <v>44578</v>
+        <v>44624</v>
       </c>
       <c r="D6" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="str" cm="1">
         <f t="array" ref="A7">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>Google Data Analytics</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
-        <v>44556</v>
+        <v>44558</v>
       </c>
       <c r="D7" s="2">
-        <v>94.58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="e" cm="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="str" cm="1">
         <f t="array" ref="A8">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+        <v>Google Data Analytics</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
-        <v>44697</v>
+        <v>44513</v>
       </c>
       <c r="D8" s="2">
-        <v>39.630000000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91.38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="str" cm="1">
         <f t="array" ref="A9">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>Google Data Analytics</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
-        <v>44528</v>
+        <v>44515</v>
       </c>
       <c r="D9" s="2">
-        <v>91.71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88.88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="str" cm="1">
         <f t="array" ref="A10">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>Google Data Analytics</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
-        <v>44515</v>
+        <v>44501</v>
       </c>
       <c r="D10" s="2">
-        <v>88.88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="str" cm="1">
         <f t="array" ref="A11">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>Google Data Analytics</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
-        <v>44514</v>
+        <v>44501</v>
       </c>
       <c r="D11" s="2">
-        <v>97.61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="e" cm="1">
+        <v>87.63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="str" cm="1">
         <f t="array" ref="A12">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+        <v>Google Project Management</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1">
-        <v>44503</v>
+        <v>44626</v>
       </c>
       <c r="D12" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="e" cm="1">
+        <v>93.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="str" cm="1">
         <f t="array" ref="A13">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+        <v>Google Project Management</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
-        <v>44682</v>
+        <v>44518</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="e" cm="1">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="str" cm="1">
         <f t="array" ref="A14">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+        <v>Google Project Management</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
-        <v>44700</v>
+        <v>44576</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="str" cm="1">
         <f t="array" ref="A15">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>Google Data Analytics</v>
+        <v>Google Project Management</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C15" s="1">
-        <v>44513</v>
+        <v>44624</v>
       </c>
       <c r="D15" s="2">
-        <v>91.38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="str" cm="1">
+        <v>92.52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="str" cm="1">
         <f t="array" ref="A16">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>Google Data Analytics</v>
+        <v>Google Project Management</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1">
-        <v>44501</v>
+        <v>58</v>
+      </c>
+      <c r="C16" s="9">
+        <v>44611</v>
       </c>
       <c r="D16" s="2">
-        <v>83.91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="str" cm="1">
         <f t="array" ref="A17">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>Google Data Analytics</v>
+        <v>Google Project Management</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1">
-        <v>44501</v>
+        <v>44518</v>
       </c>
       <c r="D17" s="2">
-        <v>87.63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="str" cm="1">
         <f t="array" ref="A18">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>Google Project Management</v>
+        <v>IBM Data Analyst</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C18" s="1">
-        <v>44626</v>
+        <v>44517</v>
       </c>
       <c r="D18" s="2">
-        <v>93.81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84.19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="str" cm="1">
         <f t="array" ref="A19">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>Google Project Management</v>
+        <v>IBM Data Analyst</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C19" s="1">
-        <v>44624</v>
+        <v>44512</v>
       </c>
       <c r="D19" s="2">
-        <v>92.52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>97.52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="str" cm="1">
         <f t="array" ref="A20">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>Google Project Management</v>
+        <v>IBM Data Analyst</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="C20" s="1">
-        <v>44611</v>
+        <v>44513</v>
       </c>
       <c r="D20" s="2">
-        <v>94.13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="e" cm="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="str" cm="1">
         <f t="array" ref="A21">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+        <v>IBM Data Analyst</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
-        <v>44689</v>
+        <v>44562</v>
       </c>
       <c r="D21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="e" cm="1">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="str" cm="1">
         <f t="array" ref="A22">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+        <v>IBM Data Analyst</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1">
-        <v>44488</v>
+        <v>44560</v>
       </c>
       <c r="D22" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="e" cm="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="str" cm="1">
         <f t="array" ref="A23">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>#N/A</v>
+        <v>IBM Data Analyst</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>44557</v>
+        <v>44512</v>
       </c>
       <c r="D23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95.85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="str" cm="1">
         <f t="array" ref="A24">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>Google Project Management</v>
+        <v>IBM Data Analyst</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1">
-        <v>44576</v>
+        <v>44515</v>
       </c>
       <c r="D24" s="2">
-        <v>92.69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="str" cm="1">
         <f t="array" ref="A25">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>Google Project Management</v>
+        <v>IBM Data Analyst</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1">
-        <v>44518</v>
+        <v>44560</v>
       </c>
       <c r="D25" s="2">
-        <v>94.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="e" cm="1">
         <f t="array" ref="A26">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1">
-        <v>44668</v>
+        <v>44689</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="str" cm="1">
         <f t="array" ref="A27">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>Google Project Management</v>
+        <v>IBM Data Analyst</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
-        <v>44518</v>
+        <v>44562</v>
       </c>
       <c r="D27" s="2">
-        <v>86.09</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>86.67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="str" cm="1">
         <f t="array" ref="A28">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>IBM Data Analyst</v>
+        <v>IBM Data Science</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C28" s="1">
-        <v>44562</v>
+        <v>44608</v>
       </c>
       <c r="D28" s="2">
-        <v>85.83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="str" cm="1">
         <f t="array" ref="A29">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>IBM Data Analyst</v>
+        <v>IBM Data Science</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="C29" s="1">
-        <v>44562</v>
+        <v>44577</v>
       </c>
       <c r="D29" s="2">
-        <v>86.67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83.17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="str" cm="1">
         <f t="array" ref="A30">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>IBM Data Analyst</v>
+        <v>IBM Data Science</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C30" s="1">
-        <v>44560</v>
+        <v>44608</v>
       </c>
       <c r="D30" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="str" cm="1">
+        <v>87.83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="str" cm="1">
         <f t="array" ref="A31">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>IBM Data Analyst</v>
+        <v>IBM Data Science</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="1">
-        <v>44560</v>
+        <v>42</v>
+      </c>
+      <c r="C31" s="9">
+        <v>44570</v>
       </c>
       <c r="D31" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="str" cm="1">
+        <v>85.83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="e" cm="1">
         <f t="array" ref="A32">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>IBM Data Analyst</v>
+        <v>#N/A</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C32" s="1">
-        <v>44517</v>
+        <v>44578</v>
       </c>
       <c r="D32" s="2">
-        <v>84.19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="str" cm="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="e" cm="1">
         <f t="array" ref="A33">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>IBM Data Analyst</v>
+        <v>#N/A</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C33" s="1">
-        <v>44515</v>
+        <v>44697</v>
       </c>
       <c r="D33" s="2">
-        <v>83.6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="str" cm="1">
+        <v>39.630000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="e" cm="1">
         <f t="array" ref="A34">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>IBM Data Analyst</v>
+        <v>#N/A</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C34" s="1">
-        <v>44513</v>
+        <v>44503</v>
       </c>
       <c r="D34" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="str" cm="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="e" cm="1">
         <f t="array" ref="A35">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>IBM Data Analyst</v>
+        <v>#N/A</v>
       </c>
       <c r="B35" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C35" s="1">
-        <v>44512</v>
+        <v>44682</v>
       </c>
       <c r="D35" s="2">
-        <v>95.85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="str" cm="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="e" cm="1">
         <f t="array" ref="A36">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>IBM Data Analyst</v>
+        <v>#N/A</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C36" s="1">
-        <v>44512</v>
+        <v>44700</v>
       </c>
       <c r="D36" s="2">
-        <v>97.52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="str" cm="1">
         <f t="array" ref="A37">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>IBM Data Science</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
-        <v>44608</v>
+        <v>44522</v>
       </c>
       <c r="D37" s="2">
-        <v>81.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="e" cm="1">
         <f t="array" ref="A38">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C38" s="1">
-        <v>44583</v>
+        <v>44640</v>
       </c>
       <c r="D38" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="str" cm="1">
+        <v>94.48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="e" cm="1">
         <f t="array" ref="A39">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>IBM Data Science</v>
+        <v>#N/A</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="C39" s="1">
-        <v>44608</v>
+        <v>44752</v>
       </c>
       <c r="D39" s="2">
-        <v>87.83</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="e" cm="1">
         <f t="array" ref="A40">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="C40" s="1">
-        <v>44582</v>
+        <v>44596</v>
       </c>
       <c r="D40" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="e" cm="1">
+        <f t="array" ref="A41">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="1">
+        <v>44596</v>
+      </c>
+      <c r="D41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="str" cm="1">
-        <f t="array" ref="A41">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>IBM Data Science</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="1">
-        <v>44577</v>
-      </c>
-      <c r="D41" s="2">
-        <v>83.17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="str" cm="1">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="e" cm="1">
         <f t="array" ref="A42">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>IBM Data Science</v>
+        <v>#N/A</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C42" s="1">
-        <v>44570</v>
+        <v>44746</v>
       </c>
       <c r="D42" s="2">
-        <v>85.83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="e" cm="1">
         <f t="array" ref="A43">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C43" s="1">
-        <v>44705</v>
+        <v>44633</v>
       </c>
       <c r="D43" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="str" cm="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="e" cm="1">
         <f t="array" ref="A44">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
-        <v>IBM Data Science</v>
+        <v>#N/A</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1">
-        <v>44522</v>
+        <v>44608</v>
       </c>
       <c r="D44" s="2">
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="e" cm="1">
         <f t="array" ref="A45">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="C45" s="1">
-        <v>44701</v>
+        <v>44488</v>
       </c>
       <c r="D45" s="2">
-        <v>70.38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="e" cm="1">
         <f t="array" ref="A46">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C46" s="1">
-        <v>44494</v>
+        <v>44560</v>
       </c>
       <c r="D46" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92.66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="e" cm="1">
         <f t="array" ref="A47">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C47" s="1">
-        <v>44700</v>
+        <v>44557</v>
       </c>
       <c r="D47" s="2">
-        <v>90.94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="e" cm="1">
         <f t="array" ref="A48">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1">
-        <v>44680</v>
+        <v>44550</v>
       </c>
       <c r="D48" s="2">
-        <v>82.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="e" cm="1">
         <f t="array" ref="A49">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C49" s="1">
-        <v>44718</v>
+        <v>44494</v>
       </c>
       <c r="D49" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="e" cm="1">
         <f t="array" ref="A50">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C50" s="1">
-        <v>44613</v>
+        <v>44680</v>
       </c>
       <c r="D50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="e" cm="1">
         <f t="array" ref="A51">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C51" s="1">
-        <v>44608</v>
+        <v>44668</v>
       </c>
       <c r="D51" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="e" cm="1">
         <f t="array" ref="A52">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C52" s="1">
-        <v>44596</v>
+        <v>44752</v>
       </c>
       <c r="D52" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79.92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="e" cm="1">
         <f t="array" ref="A53">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B53" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C53" s="1">
-        <v>44560</v>
+        <v>44488</v>
       </c>
       <c r="D53" s="2">
-        <v>92.66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>90.89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="e" cm="1">
         <f t="array" ref="A54">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="C54" s="1">
-        <v>44596</v>
+        <v>44616</v>
       </c>
       <c r="D54" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="e" cm="1">
         <f t="array" ref="A55">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B55" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C55" s="1">
-        <v>44554</v>
+        <v>44702</v>
       </c>
       <c r="D55" s="2">
-        <v>88.13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="e" cm="1">
         <f t="array" ref="A56">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B56" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C56" s="1">
-        <v>44550</v>
+        <v>44705</v>
       </c>
       <c r="D56" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="e" cm="1">
         <f t="array" ref="A57">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C57" s="1">
-        <v>44488</v>
+        <v>44752</v>
       </c>
       <c r="D57" s="2">
-        <v>90.89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="e" cm="1">
         <f t="array" ref="A58">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C58" s="1">
-        <v>44633</v>
+        <v>44752</v>
       </c>
       <c r="D58" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>81.81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="e" cm="1">
         <f t="array" ref="A59">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
         <v>#N/A</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1">
-        <v>44702</v>
+        <v>44700</v>
       </c>
       <c r="D59" s="2">
+        <v>90.94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="e" cm="1">
+        <f t="array" ref="A60">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B60" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="1">
+        <v>44718</v>
+      </c>
+      <c r="D60" s="2">
+        <v>86.08</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="e" cm="1">
+        <f t="array" ref="A61">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B61" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="1">
+        <v>44613</v>
+      </c>
+      <c r="D61" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="e" cm="1">
+        <f t="array" ref="A62">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="9">
+        <v>44583</v>
+      </c>
+      <c r="D62" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="e" cm="1">
+        <f t="array" ref="A63">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="9">
+        <v>44582</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="e" cm="1">
+        <f t="array" ref="A64">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64" s="9">
+        <v>44701</v>
+      </c>
+      <c r="D64" s="2">
+        <v>85.38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="e" cm="1">
+        <f t="array" ref="A65">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="9">
+        <v>44747</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="e" cm="1">
+        <f t="array" ref="A66">_xlfn.XLOOKUP(Courses[[#This Row],[Course Name]], Specialization[[#All],[Course]], Specialization[[#All],[Specialization]])</f>
+        <v>#N/A</v>
+      </c>
+      <c r="B66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C66" s="9">
+        <v>44554</v>
+      </c>
+      <c r="D66" s="2">
+        <v>88.13</v>
       </c>
     </row>
   </sheetData>
@@ -1699,20 +1828,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FF27EE-E833-40B9-A92D-0E3BD4E92591}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>84</v>
       </c>
@@ -1729,7 +1858,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1746,7 +1875,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1764,7 +1893,7 @@
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1782,7 +1911,7 @@
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1800,7 +1929,7 @@
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1818,7 +1947,7 @@
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1836,7 +1965,7 @@
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1854,7 +1983,7 @@
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1872,7 +2001,7 @@
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1890,7 +2019,7 @@
         <v>https://coursera.org/share/da07681340ea5f345cef21d04197f166</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>A10+1</f>
         <v>10</v>
@@ -1908,7 +2037,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" ref="A12:A38" si="0">A11+1</f>
         <v>11</v>
@@ -1926,7 +2055,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1944,7 +2073,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1962,7 +2091,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1980,7 +2109,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1998,7 +2127,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2016,7 +2145,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2034,7 +2163,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2052,7 +2181,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2070,7 +2199,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2088,7 +2217,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2106,7 +2235,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2124,7 +2253,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2142,7 +2271,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2160,7 +2289,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2178,7 +2307,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2196,7 +2325,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2214,7 +2343,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2232,7 +2361,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2250,7 +2379,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2268,7 +2397,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2286,7 +2415,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2304,7 +2433,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="57" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2322,7 +2451,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2340,7 +2469,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2358,7 +2487,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2376,7 +2505,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
